--- a/Auddict/United Strings of Europe/Spreadsheets/United Strings of Europe.xlsx
+++ b/Auddict/United Strings of Europe/Spreadsheets/United Strings of Europe.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4ABD36-9C2F-4E55-B032-32495B4CBA44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B037DF-EAD6-4CF7-BDB4-6214FEFAB057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="2085" windowWidth="22575" windowHeight="13740" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="630" windowWidth="22575" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USE Violin 1" sheetId="1" r:id="rId1"/>
@@ -2335,10 +2335,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -2346,10 +2346,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -4260,7 +4263,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -4268,10 +4271,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -6181,7 +6187,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -6189,10 +6195,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -8102,7 +8111,7 @@
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -8110,10 +8119,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
@@ -10020,10 +10032,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241DF05A-0CD2-4102-AAD2-B1159CB8AF23}">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:F12"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -10031,10 +10043,13 @@
     <col min="1" max="1" width="39.5" style="16" customWidth="1"/>
     <col min="2" max="2" width="6.125" style="17" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="18" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="17" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="17" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="17" customWidth="1"/>
     <col min="12" max="1025" width="9.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="8.875" style="4"/>
